--- a/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-07-27.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-07-27.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,114 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10207030</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Herb - Chives (Dried)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>164.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>164.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>711RGRMCRK50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graham Cracker - Crumb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>118.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>245CBB25183</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Box Cake - Full Sheet (Bottom)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>245CBT26183</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Box Cake - Full Sheet (Lid)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-07-27.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-07-27.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,249 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>612PIE8DEEP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pie Tin - 8"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>178.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>178.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Java Box (160oz)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>189.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>245CCGR1914</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/2 Sheet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>150BB6218N</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6.5x17.75 Window</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>104.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>209.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>150BB4224N</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bag Paper - Baguette</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>118.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>237.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>433qlinerbl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - White</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>219.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>130TONG6BLK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tong - 6.25" (Black)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>707U72SPRDBK</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Black Plastic Spreader 7.51"</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>43302CUPC250</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Container - Muffin (2 Pack)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
